--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\T41\V012 Files\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB8929B-7D1F-4849-8F73-A18F3AD41292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4E8371-C6AC-46E4-A776-F1FA7CCD6159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
+    <sheet name="Inductor Calcs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Qty</t>
   </si>
@@ -55,18 +70,12 @@
     <t>27pF 200V</t>
   </si>
   <si>
-    <t>C63, C69</t>
-  </si>
-  <si>
     <t>81-GCM31A5C2E270FX1D</t>
   </si>
   <si>
     <t>33pF 200V</t>
   </si>
   <si>
-    <t>C65</t>
-  </si>
-  <si>
     <t>603-CC126JRNPOABN330</t>
   </si>
   <si>
@@ -407,12 +416,48 @@
   </si>
   <si>
     <t>L3, L25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>C63, C69, C39A, C67A, C100A</t>
+  </si>
+  <si>
+    <t>C65, C39B, C67B, C100B</t>
+  </si>
+  <si>
+    <t>Inductance</t>
+  </si>
+  <si>
+    <t>uH</t>
+  </si>
+  <si>
+    <t>T68-2</t>
+  </si>
+  <si>
+    <t>T68-6</t>
+  </si>
+  <si>
+    <t>T68-17</t>
+  </si>
+  <si>
+    <t>T68-1</t>
+  </si>
+  <si>
+    <t>T68-7</t>
+  </si>
+  <si>
+    <t>T68-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,6 +772,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -890,10 +941,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -953,10 +1020,103 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142374</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>97478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01674E79-40C4-F552-8A7D-F79906BB7A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="31750"/>
+          <a:ext cx="5603374" cy="4669478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201115</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411CB87B-DAE2-036F-B8D4-694BB852DD17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492750" y="12700"/>
+          <a:ext cx="5681165" cy="4650483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -994,7 +1154,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1100,7 +1260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1242,18 +1402,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,10 +1470,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1321,13 +1481,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1335,27 +1495,27 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1363,27 +1523,30 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1391,13 +1554,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1405,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1419,13 +1582,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1433,13 +1596,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1447,13 +1610,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1461,13 +1624,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1475,13 +1638,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1489,27 +1652,27 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1517,13 +1680,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1531,13 +1694,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1545,13 +1708,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1559,13 +1722,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1573,13 +1736,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1587,13 +1750,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1601,13 +1764,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1615,13 +1778,13 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1629,13 +1792,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1643,13 +1806,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1657,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1668,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1679,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1690,10 +1853,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1701,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -1712,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -1723,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -1734,10 +1897,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1745,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1756,10 +1919,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1767,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1778,10 +1941,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1789,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1800,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1811,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1822,10 +1985,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1833,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1844,10 +2007,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1855,10 +2018,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1866,10 +2029,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1877,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1888,13 +2051,733 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21315881-8117-4FCF-A08E-B5E61CEF681B}">
+  <dimension ref="B1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.453125" style="5" customWidth="1"/>
+    <col min="3" max="6" width="5.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.453125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C3" s="6">
+        <f>SQRT($B3*1000/C$2)</f>
+        <v>3.8448158207711556</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:H18" si="0">SQRT($B3*1000/D$2)</f>
+        <v>5.4611868127275018</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0141676702564126</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>5.7177187489686565</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>7.2886898685566255</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>8.9973541084243731</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="5">
+        <v>0.188</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:H24" si="1">SQRT($B4*1000/C$2)</f>
+        <v>4.0432445000217987</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>5.743035446551839</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0128068448808625</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>7.6648548583779457</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>9.461702252967461</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>5.1499261286386213</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>7.3149690313646962</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>8.0556574543159787</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>7.6585799045153369</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>9.7628120948833175</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>12.051476890327395</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>5.397261785628773</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>7.666285268926627</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4425467570325505</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>8.0263987518112323</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>10.231690964840562</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>12.630273533214137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4133490397430455</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>7.6891356482730782</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4677108866313144</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>8.0503224971234726</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>10.262187875886896</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>12.667919737517698</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4533595548783147</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>7.745966692414834</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>8.5302964454237173</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>8.1098231034487291</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>10.338036564067666</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>12.761549390929883</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9417461933413946</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4396723974001855</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>9.2942443868990363</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8361147048305728</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>11.26388032606881</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>13.904435743076139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>6.2345461115779157</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8555661948617921</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>9.7522501495154135</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>9.2715445564122945</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>11.818946653572814</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>14.589624493356327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3997282551004018</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0901913592271768</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>10.010632645215127</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5171909236351393</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>12.132085558550928</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>14.976171549689003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7179189324230979</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5421502597133401</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>10.508355338248398</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>9.9903799881532187</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>12.735285626950029</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>15.720777879699755</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>7.271146073171086</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>10.327955589886445</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>11.37372859389829</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>10.813097471264971</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>13.784048752090222</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>17.01539918790651</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6328808169142395</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>10.841764600337106</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>11.939564124764425</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>11.351041971825927</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>14.469796128487781</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>17.861904127153384</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
+        <v>8.5617958295025325</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>12.161198001928316</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>13.39259878170251</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>12.732453990310926</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>16.230757838129431</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>20.035682454774815</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
+        <v>8.9830758748834487</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>12.75958532021553</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>14.05157672685305</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>13.358949751441482</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>17.029386365926403</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>21.021530912489744</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
+        <v>10.299852257277243</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>14.629938062729392</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>16.111314908631957</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>15.317159809030674</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>19.525624189766635</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>24.10295378065479</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
+        <v>10.794523571257546</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>15.332570537853254</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>16.885093514065101</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>16.052797503622465</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>20.463381929681123</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>25.260547066428273</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>11.79535649239177</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>16.754156331667819</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="1"/>
+        <v>18.4506241605777</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>17.541160386140582</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>27.602622373694167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
+        <v>12.371074256541732</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>17.571907404279177</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="1"/>
+        <v>19.351177873875869</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
+        <v>18.397324220155998</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>23.45207879911715</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>28.949874578229835</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
+        <v>14.536311355570469</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>20.647416048350561</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
+        <v>22.738101868796011</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>21.61730076368676</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>27.556759606310752</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>34.01680257083045</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="1"/>
+        <v>15.265761633828479</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>21.683529200674212</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
+        <v>23.879128249528851</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>22.702083943651854</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>28.939592256975562</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>35.723808254306768</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="1"/>
+        <v>20.28063972921187</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>28.806675639571964</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="1"/>
+        <v>31.723539820193526</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
+        <v>30.159830646331297</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>38.446391248074249</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>47.459255708248861</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="1"/>
+        <v>21.284818022733237</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>30.233013209392446</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="1"/>
+        <v>33.294303391088874</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
+        <v>31.653168513169057</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>40.350030978922433</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>49.809159608975342</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFBBB3-1038-47EE-B098-CB95D7364046}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4E8371-C6AC-46E4-A776-F1FA7CCD6159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069771D-E815-4CE5-A007-162E52070A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="157">
   <si>
     <t>Qty</t>
   </si>
@@ -449,16 +449,74 @@
   </si>
   <si>
     <t>T68-10</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Freq Low</t>
+  </si>
+  <si>
+    <t>Freq Hi</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Turns</t>
+  </si>
+  <si>
+    <t>T68-0</t>
+  </si>
+  <si>
+    <t>T68-3</t>
+  </si>
+  <si>
+    <t>T68-4</t>
+  </si>
+  <si>
+    <t>T68-8</t>
+  </si>
+  <si>
+    <t>T68-15</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>In</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +651,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,8 +846,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -896,8 +1004,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -940,8 +1057,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -956,14 +1074,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1003,6 +1195,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -2065,701 +2258,1952 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21315881-8117-4FCF-A08E-B5E61CEF681B}">
-  <dimension ref="B1:H24"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.453125" style="5" customWidth="1"/>
-    <col min="3" max="6" width="5.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.453125" customWidth="1"/>
+    <col min="18" max="18" width="8.54296875" customWidth="1"/>
+    <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.453125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G2" s="6">
         <v>11.5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="H2" s="6">
         <v>5.7</v>
       </c>
-      <c r="E2" s="4">
+      <c r="I2" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
         <v>4.7</v>
       </c>
-      <c r="F2" s="4">
+      <c r="L2" s="6">
         <v>5.2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="M2" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="N2" s="6">
         <v>3.2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q2" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
       <c r="B3" s="5">
         <v>0.17</v>
       </c>
-      <c r="C3" s="6">
-        <f>SQRT($B3*1000/C$2)</f>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8">
+        <v>54</v>
+      </c>
+      <c r="F3" s="9">
+        <f>SQRT($B3*1000/F$2)</f>
+        <v>15.055453054181619</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:P18" si="0">SQRT($B3*1000/G$2)</f>
         <v>3.8448158207711556</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:H18" si="0">SQRT($B3*1000/D$2)</f>
+      <c r="H3" s="9">
+        <f t="shared" si="0"/>
         <v>5.4611868127275018</v>
       </c>
-      <c r="E3" s="7">
+      <c r="I3" s="9">
+        <f t="shared" si="0"/>
+        <v>2.9526172657404679</v>
+      </c>
+      <c r="J3" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="9">
         <f t="shared" si="0"/>
         <v>6.0141676702564126</v>
       </c>
-      <c r="F3" s="6">
+      <c r="L3" s="9">
         <f t="shared" si="0"/>
         <v>5.7177187489686565</v>
       </c>
-      <c r="G3" s="6">
+      <c r="M3" s="9">
+        <f t="shared" si="0"/>
+        <v>2.9526172657404679</v>
+      </c>
+      <c r="N3" s="10">
         <f t="shared" si="0"/>
         <v>7.2886898685566255</v>
       </c>
-      <c r="H3" s="6">
+      <c r="O3" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" s="11">
         <f t="shared" si="0"/>
         <v>8.9973541084243731</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="5">
+        <v>9</v>
+      </c>
+      <c r="T3" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="U3" s="5">
+        <f>B3</f>
+        <v>0.17</v>
+      </c>
+      <c r="V3" s="8">
+        <f>S3*S3*T3/1000</f>
+        <v>0.1701</v>
+      </c>
+      <c r="W3" s="33">
+        <f>V3-U3</f>
+        <v>9.9999999999988987E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
       <c r="B4" s="5">
         <v>0.188</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" ref="C4:H24" si="1">SQRT($B4*1000/C$2)</f>
+      <c r="C4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="7">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:I24" si="1">SQRT($B4*1000/F$2)</f>
+        <v>15.832456116050556</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
         <v>4.0432445000217987</v>
       </c>
-      <c r="D4" s="6">
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>5.743035446551839</v>
       </c>
-      <c r="E4" s="6">
+      <c r="I4" s="9">
+        <f t="shared" si="0"/>
+        <v>3.105000103224739</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>6.324555320336759</v>
       </c>
-      <c r="F4" s="7">
+      <c r="L4" s="9">
         <f t="shared" si="0"/>
         <v>6.0128068448808625</v>
       </c>
-      <c r="G4" s="6">
+      <c r="M4" s="9">
+        <f t="shared" si="0"/>
+        <v>3.105000103224739</v>
+      </c>
+      <c r="N4" s="10">
         <f t="shared" si="0"/>
         <v>7.6648548583779457</v>
       </c>
-      <c r="H4" s="6">
+      <c r="O4" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="11">
         <f t="shared" si="0"/>
         <v>9.461702252967461</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q4" s="27"/>
+      <c r="R4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="5">
+        <v>10</v>
+      </c>
+      <c r="T4" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4:U24" si="2">B4</f>
+        <v>0.188</v>
+      </c>
+      <c r="V4" s="8">
+        <f>S4*S4*T4/1000</f>
+        <v>0.21</v>
+      </c>
+      <c r="W4" s="33">
+        <f t="shared" ref="W4:W24" si="3">V4-U4</f>
+        <v>2.1999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
       <c r="B5" s="5">
         <v>0.30499999999999999</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="F5" s="12">
         <f t="shared" si="1"/>
+        <v>20.165977949672232</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
         <v>5.1499261286386213</v>
       </c>
-      <c r="D5" s="6">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>7.3149690313646962</v>
       </c>
-      <c r="E5" s="7">
+      <c r="I5" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9548736567715586</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
         <v>8.0556574543159787</v>
       </c>
-      <c r="F5" s="6">
+      <c r="L5" s="12">
         <f t="shared" si="0"/>
         <v>7.6585799045153369</v>
       </c>
-      <c r="G5" s="6">
+      <c r="M5" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9548736567715586</v>
+      </c>
+      <c r="N5" s="10">
         <f t="shared" si="0"/>
         <v>9.7628120948833175</v>
       </c>
-      <c r="H5" s="6">
+      <c r="O5" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="11">
         <f t="shared" si="0"/>
         <v>12.051476890327395</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q5" s="27"/>
+      <c r="R5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S5" s="5">
+        <v>8</v>
+      </c>
+      <c r="T5" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="V5" s="8">
+        <f>S5*S5*T5/1000</f>
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="W5" s="33">
+        <f t="shared" si="3"/>
+        <v>-4.1999999999999815E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
       <c r="B6" s="5">
         <v>0.33500000000000002</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="7">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
+        <v>21.134489978863144</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
         <v>5.397261785628773</v>
       </c>
-      <c r="D6" s="6">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>7.666285268926627</v>
       </c>
-      <c r="E6" s="6">
+      <c r="I6" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1448144927713209</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
         <v>8.4425467570325505</v>
       </c>
-      <c r="F6" s="7">
+      <c r="L6" s="12">
         <f t="shared" si="0"/>
         <v>8.0263987518112323</v>
       </c>
-      <c r="G6" s="6">
+      <c r="M6" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1448144927713209</v>
+      </c>
+      <c r="N6" s="10">
         <f t="shared" si="0"/>
         <v>10.231690964840562</v>
       </c>
-      <c r="H6" s="6">
+      <c r="O6" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="11">
         <f t="shared" si="0"/>
         <v>12.630273533214137</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="5">
+        <v>8</v>
+      </c>
+      <c r="T6" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="V6" s="8">
+        <f>S6*S6*T6/1000</f>
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="W6" s="33">
+        <f t="shared" si="3"/>
+        <v>-3.4200000000000008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
       <c r="B7" s="5">
         <v>0.33700000000000002</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="7">
+        <v>24.89</v>
+      </c>
+      <c r="E7" s="8">
+        <v>24.99</v>
+      </c>
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
+        <v>21.197484127446195</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
         <v>5.4133490397430455</v>
       </c>
-      <c r="D7" s="6">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>7.6891356482730782</v>
       </c>
-      <c r="E7" s="6">
+      <c r="I7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1571686617277486</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
         <v>8.4677108866313144</v>
       </c>
-      <c r="F7" s="7">
+      <c r="L7" s="12">
         <f t="shared" si="0"/>
         <v>8.0503224971234726</v>
       </c>
-      <c r="G7" s="6">
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1571686617277486</v>
+      </c>
+      <c r="N7" s="10">
         <f t="shared" si="0"/>
         <v>10.262187875886896</v>
       </c>
-      <c r="H7" s="6">
+      <c r="O7" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="11">
         <f t="shared" si="0"/>
         <v>12.667919737517698</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q7" s="27"/>
+      <c r="R7" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" s="5">
+        <v>8</v>
+      </c>
+      <c r="T7" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="V7" s="8">
+        <f>S7*S7*T7/1000</f>
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="W7" s="33">
+        <f t="shared" si="3"/>
+        <v>-3.620000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
       <c r="B8" s="5">
         <v>0.34200000000000003</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24.89</v>
+      </c>
+      <c r="E8" s="8">
+        <v>24.99</v>
+      </c>
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
+        <v>21.354156504062622</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
         <v>5.4533595548783147</v>
       </c>
-      <c r="D8" s="6">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>7.745966692414834</v>
       </c>
-      <c r="E8" s="6">
+      <c r="I8" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1878946427126769</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>8.5302964454237173</v>
       </c>
-      <c r="F8" s="7">
+      <c r="L8" s="12">
         <f t="shared" si="0"/>
         <v>8.1098231034487291</v>
       </c>
-      <c r="G8" s="6">
+      <c r="M8" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1878946427126769</v>
+      </c>
+      <c r="N8" s="10">
         <f t="shared" si="0"/>
         <v>10.338036564067666</v>
       </c>
-      <c r="H8" s="6">
+      <c r="O8" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="11">
         <f t="shared" si="0"/>
         <v>12.761549390929883</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q8" s="27"/>
+      <c r="R8" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S8" s="5">
+        <v>8</v>
+      </c>
+      <c r="T8" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="V8" s="8">
+        <f>S8*S8*T8/1000</f>
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="W8" s="33">
+        <f t="shared" si="3"/>
+        <v>-4.1200000000000014E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
       <c r="B9" s="5">
         <v>0.40600000000000003</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8">
+        <v>21.45</v>
+      </c>
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
+        <v>23.266571155486865</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
         <v>5.9417461933413946</v>
       </c>
-      <c r="D9" s="6">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>8.4396723974001855</v>
       </c>
-      <c r="E9" s="6">
+      <c r="I9" s="9">
+        <f t="shared" si="0"/>
+        <v>4.562950012931636</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>9.2942443868990363</v>
       </c>
-      <c r="F9" s="6">
+      <c r="L9" s="12">
         <f t="shared" si="0"/>
         <v>8.8361147048305728</v>
       </c>
-      <c r="G9" s="6">
+      <c r="M9" s="9">
+        <f t="shared" si="0"/>
+        <v>4.562950012931636</v>
+      </c>
+      <c r="N9" s="10">
         <f t="shared" si="0"/>
         <v>11.26388032606881</v>
       </c>
-      <c r="H9" s="6">
+      <c r="O9" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="11">
         <f t="shared" si="0"/>
         <v>13.904435743076139</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q9" s="27"/>
+      <c r="R9" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="5">
+        <v>9</v>
+      </c>
+      <c r="T9" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="V9" s="8">
+        <f>S9*S9*T9/1000</f>
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="W9" s="33">
+        <f t="shared" si="3"/>
+        <v>-2.5300000000000045E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
       <c r="B10" s="5">
         <v>0.44700000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="7">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8">
+        <v>21.45</v>
+      </c>
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
+        <v>24.413111231467404</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
         <v>6.2345461115779157</v>
       </c>
-      <c r="D10" s="6">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>8.8555661948617921</v>
       </c>
-      <c r="E10" s="6">
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7878050214139805</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>9.7522501495154135</v>
       </c>
-      <c r="F10" s="6">
+      <c r="L10" s="12">
         <f t="shared" si="0"/>
         <v>9.2715445564122945</v>
       </c>
-      <c r="G10" s="6">
+      <c r="M10" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7878050214139805</v>
+      </c>
+      <c r="N10" s="10">
         <f t="shared" si="0"/>
         <v>11.818946653572814</v>
       </c>
-      <c r="H10" s="6">
+      <c r="O10" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="11">
         <f t="shared" si="0"/>
         <v>14.589624493356327</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="5">
+        <v>10</v>
+      </c>
+      <c r="T10" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="V10" s="8">
+        <f>S10*S10*T10/1000</f>
+        <v>0.47</v>
+      </c>
+      <c r="W10" s="33">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999965E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
       <c r="B11" s="5">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18.068000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
+        <v>25.059928172283335</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
         <v>6.3997282551004018</v>
       </c>
-      <c r="D11" s="6">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>9.0901913592271768</v>
       </c>
-      <c r="E11" s="6">
+      <c r="I11" s="9">
+        <f t="shared" si="0"/>
+        <v>4.9146562599887034</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>10.010632645215127</v>
       </c>
-      <c r="F11" s="6">
+      <c r="L11" s="12">
         <f t="shared" si="0"/>
         <v>9.5171909236351393</v>
       </c>
-      <c r="G11" s="6">
+      <c r="M11" s="9">
+        <f t="shared" si="0"/>
+        <v>4.9146562599887034</v>
+      </c>
+      <c r="N11" s="10">
         <f t="shared" si="0"/>
         <v>12.132085558550928</v>
       </c>
-      <c r="H11" s="6">
+      <c r="O11" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="9">
         <f t="shared" si="0"/>
         <v>14.976171549689003</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q11" s="27"/>
+      <c r="R11" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" s="5">
+        <v>10</v>
+      </c>
+      <c r="T11" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="V11" s="8">
+        <f>S11*S11*T11/1000</f>
+        <v>0.47</v>
+      </c>
+      <c r="W11" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
       <c r="B12" s="5">
         <v>0.51900000000000002</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18.068000000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
+        <v>26.305892875931811</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
         <v>6.7179189324230979</v>
       </c>
-      <c r="D12" s="6">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>9.5421502597133401</v>
       </c>
-      <c r="E12" s="6">
+      <c r="I12" s="9">
+        <f t="shared" si="0"/>
+        <v>5.1590100421868357</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>10.508355338248398</v>
       </c>
-      <c r="F12" s="6">
+      <c r="L12" s="12">
         <f t="shared" si="0"/>
         <v>9.9903799881532187</v>
       </c>
-      <c r="G12" s="6">
+      <c r="M12" s="9">
+        <f t="shared" si="0"/>
+        <v>5.1590100421868357</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="0"/>
         <v>12.735285626950029</v>
       </c>
-      <c r="H12" s="6">
+      <c r="O12" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="9">
         <f t="shared" si="0"/>
         <v>15.720777879699755</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" s="5">
+        <v>11</v>
+      </c>
+      <c r="T12" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="V12" s="8">
+        <f>S12*S12*T12/1000</f>
+        <v>0.56870000000000009</v>
+      </c>
+      <c r="W12" s="33">
+        <f t="shared" si="3"/>
+        <v>4.9700000000000077E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
       <c r="B13" s="5">
         <v>0.60799999999999998</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8">
+        <v>14.35</v>
+      </c>
+      <c r="F13" s="12">
         <f t="shared" si="1"/>
+        <v>28.472208672083497</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
         <v>7.271146073171086</v>
       </c>
-      <c r="D13" s="6">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>10.327955589886445</v>
       </c>
-      <c r="E13" s="6">
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5838595236169022</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>11.37372859389829</v>
       </c>
-      <c r="F13" s="6">
+      <c r="L13" s="12">
         <f t="shared" si="0"/>
         <v>10.813097471264971</v>
       </c>
-      <c r="G13" s="6">
+      <c r="M13" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5838595236169022</v>
+      </c>
+      <c r="N13" s="10">
         <f t="shared" si="0"/>
         <v>13.784048752090222</v>
       </c>
-      <c r="H13" s="6">
+      <c r="O13" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="9">
         <f t="shared" si="0"/>
         <v>17.01539918790651</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" s="5">
+        <v>11</v>
+      </c>
+      <c r="T13" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="V13" s="8">
+        <f>S13*S13*T13/1000</f>
+        <v>0.56870000000000009</v>
+      </c>
+      <c r="W13" s="33">
+        <f t="shared" si="3"/>
+        <v>-3.9299999999999891E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
       <c r="B14" s="5">
         <v>0.67</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="7">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8">
+        <v>14.35</v>
+      </c>
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
+        <v>29.888682361946525</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
         <v>7.6328808169142395</v>
       </c>
-      <c r="D14" s="6">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>10.841764600337106</v>
       </c>
-      <c r="E14" s="6">
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>5.8616528691977621</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>11.939564124764425</v>
       </c>
-      <c r="F14" s="6">
+      <c r="L14" s="12">
         <f t="shared" si="0"/>
         <v>11.351041971825927</v>
       </c>
-      <c r="G14" s="6">
+      <c r="M14" s="9">
+        <f t="shared" si="0"/>
+        <v>5.8616528691977621</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="0"/>
         <v>14.469796128487781</v>
       </c>
-      <c r="H14" s="6">
+      <c r="O14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="9">
         <f t="shared" si="0"/>
         <v>17.861904127153384</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q14" s="27"/>
+      <c r="R14" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S14" s="5">
+        <v>12</v>
+      </c>
+      <c r="T14" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.67</v>
+      </c>
+      <c r="V14" s="8">
+        <f>S14*S14*T14/1000</f>
+        <v>0.67680000000000007</v>
+      </c>
+      <c r="W14" s="33">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000282E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
       <c r="B15" s="5">
         <v>0.84299999999999997</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10.15</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
+        <v>33.526109228480422</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
         <v>8.5617958295025325</v>
       </c>
-      <c r="D15" s="6">
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>12.161198001928316</v>
       </c>
-      <c r="E15" s="6">
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>6.5750109681101847</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>13.39259878170251</v>
       </c>
-      <c r="F15" s="6">
+      <c r="L15" s="12">
         <f t="shared" si="0"/>
         <v>12.732453990310926</v>
       </c>
-      <c r="G15" s="6">
+      <c r="M15" s="9">
+        <f t="shared" si="0"/>
+        <v>6.5750109681101847</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="0"/>
         <v>16.230757838129431</v>
       </c>
-      <c r="H15" s="6">
+      <c r="O15" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" s="9">
         <f t="shared" si="0"/>
         <v>20.035682454774815</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q15" s="27"/>
+      <c r="R15" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" s="5">
+        <v>13</v>
+      </c>
+      <c r="T15" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="V15" s="8">
+        <f>S15*S15*T15/1000</f>
+        <v>0.79430000000000012</v>
+      </c>
+      <c r="W15" s="33">
+        <f t="shared" si="3"/>
+        <v>-4.8699999999999855E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
       <c r="B16" s="5">
         <v>0.92800000000000005</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>10.15</v>
+      </c>
+      <c r="F16" s="12">
         <f t="shared" si="1"/>
+        <v>35.175749222061114</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
         <v>8.9830758748834487</v>
       </c>
-      <c r="D16" s="6">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>12.75958532021553</v>
       </c>
-      <c r="E16" s="6">
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>6.8985319880206104</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>14.05157672685305</v>
       </c>
-      <c r="F16" s="6">
+      <c r="L16" s="12">
         <f t="shared" si="0"/>
         <v>13.358949751441482</v>
       </c>
-      <c r="G16" s="6">
+      <c r="M16" s="9">
+        <f t="shared" si="0"/>
+        <v>6.8985319880206104</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="0"/>
         <v>17.029386365926403</v>
       </c>
-      <c r="H16" s="6">
+      <c r="O16" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="9">
         <f t="shared" si="0"/>
         <v>21.021530912489744</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q16" s="27"/>
+      <c r="R16" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" s="5">
+        <v>14</v>
+      </c>
+      <c r="T16" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="V16" s="8">
+        <f>S16*S16*T16/1000</f>
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="W16" s="33">
+        <f t="shared" si="3"/>
+        <v>-6.8000000000000282E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5">
         <v>1.22</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" si="1"/>
+        <v>40.331955899344464</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
         <v>10.299852257277243</v>
       </c>
-      <c r="D17" s="6">
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>14.629938062729392</v>
       </c>
-      <c r="E17" s="6">
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>7.9097473135431171</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>16.111314908631957</v>
       </c>
-      <c r="F17" s="6">
+      <c r="L17" s="12">
         <f t="shared" si="0"/>
         <v>15.317159809030674</v>
       </c>
-      <c r="G17" s="6">
+      <c r="M17" s="9">
+        <f t="shared" si="0"/>
+        <v>7.9097473135431171</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="0"/>
         <v>19.525624189766635</v>
       </c>
-      <c r="H17" s="6">
+      <c r="O17" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="9">
         <f t="shared" si="0"/>
         <v>24.10295378065479</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q17" s="27"/>
+      <c r="R17" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="5">
+        <v>16</v>
+      </c>
+      <c r="T17" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.22</v>
+      </c>
+      <c r="V17" s="8">
+        <f>S17*S17*T17/1000</f>
+        <v>1.2032</v>
+      </c>
+      <c r="W17" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.6799999999999926E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
       <c r="B18" s="5">
         <v>1.34</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="1"/>
+        <v>42.268979957726287</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
         <v>10.794523571257546</v>
       </c>
-      <c r="D18" s="6">
+      <c r="H18" s="14">
         <f t="shared" si="0"/>
         <v>15.332570537853254</v>
       </c>
-      <c r="E18" s="6">
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>8.2896289855426417</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>16.885093514065101</v>
       </c>
-      <c r="F18" s="6">
+      <c r="L18" s="12">
         <f t="shared" si="0"/>
         <v>16.052797503622465</v>
       </c>
-      <c r="G18" s="6">
+      <c r="M18" s="9">
+        <f t="shared" si="0"/>
+        <v>8.2896289855426417</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="0"/>
         <v>20.463381929681123</v>
       </c>
-      <c r="H18" s="6">
+      <c r="O18" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="9">
         <f t="shared" si="0"/>
         <v>25.260547066428273</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q18" s="27"/>
+      <c r="R18" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="5">
+        <v>17</v>
+      </c>
+      <c r="T18" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="2"/>
+        <v>1.34</v>
+      </c>
+      <c r="V18" s="8">
+        <f>S18*S18*T18/1000</f>
+        <v>1.3583000000000001</v>
+      </c>
+      <c r="W18" s="33">
+        <f t="shared" si="3"/>
+        <v>1.8299999999999983E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
       <c r="B19" s="5">
         <v>1.6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>46.188021535170066</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="1"/>
         <v>11.79535649239177</v>
       </c>
-      <c r="D19" s="6">
+      <c r="H19" s="14">
         <f t="shared" si="1"/>
         <v>16.754156331667819</v>
       </c>
-      <c r="E19" s="6">
+      <c r="I19" s="13">
         <f t="shared" si="1"/>
+        <v>9.0582162731567664</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="12">
+        <f t="shared" ref="K19:P24" si="4">SQRT($B19*1000/K$2)</f>
         <v>18.4506241605777</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="1"/>
+      <c r="L19" s="12">
+        <f t="shared" si="4"/>
         <v>17.541160386140582</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="1"/>
+      <c r="M19" s="9">
+        <f t="shared" si="4"/>
+        <v>9.0582162731567664</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
         <v>22.360679774997898</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" si="1"/>
+      <c r="O19" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="4"/>
         <v>27.602622373694167</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q19" s="27"/>
+      <c r="R19" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="S19" s="5">
+        <v>17</v>
+      </c>
+      <c r="T19" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="V19" s="8">
+        <f>S19*S19*T19/1000</f>
+        <v>1.6473</v>
+      </c>
+      <c r="W19" s="33">
+        <f t="shared" si="3"/>
+        <v>4.7299999999999898E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
       <c r="B20" s="5">
         <v>1.76</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="1"/>
+        <v>48.442405665559868</v>
+      </c>
+      <c r="G20" s="15">
         <f t="shared" si="1"/>
         <v>12.371074256541732</v>
       </c>
-      <c r="D20" s="6">
+      <c r="H20" s="14">
         <f t="shared" si="1"/>
         <v>17.571907404279177</v>
       </c>
-      <c r="E20" s="6">
+      <c r="I20" s="13">
         <f t="shared" si="1"/>
+        <v>9.5003373759256711</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="12">
+        <f t="shared" si="4"/>
         <v>19.351177873875869</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="1"/>
+      <c r="L20" s="12">
+        <f t="shared" si="4"/>
         <v>18.397324220155998</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
+      <c r="M20" s="9">
+        <f t="shared" si="4"/>
+        <v>9.5003373759256711</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
         <v>23.45207879911715</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="1"/>
+      <c r="O20" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="4"/>
         <v>28.949874578229835</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q20" s="27"/>
+      <c r="R20" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="S20" s="5">
+        <v>18</v>
+      </c>
+      <c r="T20" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="2"/>
+        <v>1.76</v>
+      </c>
+      <c r="V20" s="8">
+        <f>S20*S20*T20/1000</f>
+        <v>1.8468</v>
+      </c>
+      <c r="W20" s="33">
+        <f t="shared" si="3"/>
+        <v>8.6799999999999988E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
       <c r="B21" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
+        <v>56.920997883030829</v>
+      </c>
+      <c r="G21" s="15">
         <f t="shared" si="1"/>
         <v>14.536311355570469</v>
       </c>
-      <c r="D21" s="6">
+      <c r="H21" s="14">
         <f t="shared" si="1"/>
         <v>20.647416048350561</v>
       </c>
-      <c r="E21" s="6">
+      <c r="I21" s="13">
         <f t="shared" si="1"/>
+        <v>11.163126113028762</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9">
+        <f t="shared" si="4"/>
         <v>22.738101868796011</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="1"/>
+      <c r="L21" s="12">
+        <f t="shared" si="4"/>
         <v>21.61730076368676</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="1"/>
+      <c r="M21" s="15">
+        <f t="shared" si="4"/>
+        <v>11.163126113028762</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
         <v>27.556759606310752</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
+      <c r="O21" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="4"/>
         <v>34.01680257083045</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q21" s="27"/>
+      <c r="R21" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="S21" s="5">
+        <v>21</v>
+      </c>
+      <c r="T21" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="V21" s="8">
+        <f>S21*S21*T21/1000</f>
+        <v>2.5137000000000005</v>
+      </c>
+      <c r="W21" s="33">
+        <f t="shared" si="3"/>
+        <v>8.370000000000033E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
       <c r="B22" s="5">
         <v>2.68</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
+        <v>59.777364723893051</v>
+      </c>
+      <c r="G22" s="15">
         <f t="shared" si="1"/>
         <v>15.265761633828479</v>
       </c>
-      <c r="D22" s="6">
+      <c r="H22" s="14">
         <f t="shared" si="1"/>
         <v>21.683529200674212</v>
       </c>
-      <c r="E22" s="6">
+      <c r="I22" s="13">
         <f t="shared" si="1"/>
+        <v>11.723305738395524</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9">
+        <f t="shared" si="4"/>
         <v>23.879128249528851</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="1"/>
+      <c r="L22" s="12">
+        <f t="shared" si="4"/>
         <v>22.702083943651854</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="1"/>
+      <c r="M22" s="15">
+        <f t="shared" si="4"/>
+        <v>11.723305738395524</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="4"/>
         <v>28.939592256975562</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="1"/>
+      <c r="O22" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="4"/>
         <v>35.723808254306768</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="Q22" s="27"/>
+      <c r="R22" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="S22" s="5">
+        <v>22</v>
+      </c>
+      <c r="T22" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="2"/>
+        <v>2.68</v>
+      </c>
+      <c r="V22" s="8">
+        <f>S22*S22*T22/1000</f>
+        <v>2.7588000000000004</v>
+      </c>
+      <c r="W22" s="33">
+        <f t="shared" si="3"/>
+        <v>7.8800000000000203E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
       <c r="B23" s="5">
         <v>4.7300000000000004</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>79.414524280301947</v>
+      </c>
+      <c r="G23" s="15">
         <f t="shared" si="1"/>
         <v>20.28063972921187</v>
       </c>
-      <c r="D23" s="6">
+      <c r="H23" s="14">
         <f t="shared" si="1"/>
         <v>28.806675639571964</v>
       </c>
-      <c r="E23" s="6">
+      <c r="I23" s="13">
         <f t="shared" si="1"/>
+        <v>15.574469575690292</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9">
+        <f t="shared" si="4"/>
         <v>31.723539820193526</v>
       </c>
-      <c r="F23" s="6">
+      <c r="L23" s="12">
+        <f t="shared" si="4"/>
+        <v>30.159830646331297</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="4"/>
+        <v>15.574469575690292</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="4"/>
+        <v>38.446391248074249</v>
+      </c>
+      <c r="O23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="4"/>
+        <v>47.459255708248861</v>
+      </c>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="S23" s="5">
+        <v>29</v>
+      </c>
+      <c r="T23" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="V23" s="8">
+        <f>S23*S23*T23/1000</f>
+        <v>4.7936999999999994</v>
+      </c>
+      <c r="W23" s="33">
+        <f t="shared" si="3"/>
+        <v>6.369999999999898E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16">
+        <v>5.21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="E24" s="18">
+        <v>2</v>
+      </c>
+      <c r="F24" s="19">
         <f t="shared" si="1"/>
-        <v>30.159830646331297</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="1"/>
-        <v>38.446391248074249</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="1"/>
-        <v>47.459255708248861</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
-        <v>5.21</v>
-      </c>
-      <c r="C24" s="6">
+        <v>83.346665600170638</v>
+      </c>
+      <c r="G24" s="20">
         <f t="shared" si="1"/>
         <v>21.284818022733237</v>
       </c>
-      <c r="D24" s="6">
+      <c r="H24" s="21">
         <f t="shared" si="1"/>
         <v>30.233013209392446</v>
       </c>
-      <c r="E24" s="6">
+      <c r="I24" s="22">
         <f t="shared" si="1"/>
+        <v>16.345625934160097</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="19">
+        <f t="shared" si="4"/>
         <v>33.294303391088874</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="1"/>
+      <c r="L24" s="24">
+        <f t="shared" si="4"/>
         <v>31.653168513169057</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="1"/>
+      <c r="M24" s="20">
+        <f t="shared" si="4"/>
+        <v>16.345625934160097</v>
+      </c>
+      <c r="N24" s="23">
+        <f t="shared" si="4"/>
         <v>40.350030978922433</v>
       </c>
-      <c r="H24" s="6">
-        <f t="shared" si="1"/>
+      <c r="O24" s="21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="19">
+        <f t="shared" si="4"/>
         <v>49.809159608975342</v>
+      </c>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="S24" s="16">
+        <v>30</v>
+      </c>
+      <c r="T24" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.21</v>
+      </c>
+      <c r="V24" s="8">
+        <f>S24*S24*T24/1000</f>
+        <v>5.13</v>
+      </c>
+      <c r="W24" s="33">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <f>SUM(A3:A24)</f>
+        <v>33</v>
+      </c>
+      <c r="H26" s="25">
+        <f>SUM(A19:A24)</f>
+        <v>9</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="25">
+        <f>SUM(A5:A18)</f>
+        <v>21</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="25">
+        <f>SUM(A3:A4)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069771D-E815-4CE5-A007-162E52070A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FADFC-3438-4663-AF0B-0F1053F0E0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
     <sheet name="Inductor Calcs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="183">
   <si>
     <t>Qty</t>
   </si>
@@ -109,9 +110,6 @@
     <t>60pF 200V</t>
   </si>
   <si>
-    <t>C39, C67, C100</t>
-  </si>
-  <si>
     <t>33pf+27pf above stacked</t>
   </si>
   <si>
@@ -506,6 +504,116 @@
   </si>
   <si>
     <t>In</t>
+  </si>
+  <si>
+    <t>Total Wire</t>
+  </si>
+  <si>
+    <t>Ft</t>
+  </si>
+  <si>
+    <t>9 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>10 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>11 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>12 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>13 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>14 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>16 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>17 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>9 Turns of #20 Wire on a T68-17 Core.</t>
+  </si>
+  <si>
+    <t>10 Turns of #20 Wire on a T68-17 Core.</t>
+  </si>
+  <si>
+    <t>29 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>30 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>8 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>17 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>18 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>21 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>22 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>T68-2 Cores</t>
+  </si>
+  <si>
+    <t>T68-6 Cores</t>
+  </si>
+  <si>
+    <t>T68-17 Cores</t>
+  </si>
+  <si>
+    <t>KitsAndParts.com T41 V012.6 LPF Kit</t>
+  </si>
+  <si>
+    <t>Feet #30 Transformer Wire</t>
+  </si>
+  <si>
+    <t>For L3-L35</t>
+  </si>
+  <si>
+    <t>C39, C67, C100 (made from above A and B parts stacked)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L13,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L35</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -514,9 +622,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +763,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1059,7 +1173,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1151,7 +1265,13 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1603,23 +1723,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.7265625" style="5"/>
     <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1642,7 +1764,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1656,35 +1778,35 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -1698,7 +1820,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1712,7 +1834,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -1726,542 +1848,734 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>127</v>
+      <c r="A8" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <f>A29+A30</f>
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <f>SUM(A31:A44)</f>
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <f>A45+A46+A47+A48+A49+A50</f>
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>126</v>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="17" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21315881-8117-4FCF-A08E-B5E61CEF681B}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2283,86 +2597,91 @@
     <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6328125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="8.54296875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="5"/>
+    <col min="25" max="25" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="Q1" s="27"/>
       <c r="R1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="T1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="X1" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2397,26 +2716,29 @@
         <v>2.1</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S2" s="4"/>
       <c r="U2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2424,7 +2746,7 @@
         <v>0.17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7">
         <v>50</v>
@@ -2478,7 +2800,7 @@
       </c>
       <c r="Q3" s="27"/>
       <c r="R3" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S3" s="5">
         <v>9</v>
@@ -2491,15 +2813,22 @@
         <v>0.17</v>
       </c>
       <c r="V3" s="8">
-        <f>S3*S3*T3/1000</f>
+        <f t="shared" ref="V3:V24" si="1">S3*S3*T3/1000</f>
         <v>0.1701</v>
       </c>
       <c r="W3" s="33">
-        <f>V3-U3</f>
-        <v>9.9999999999988987E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+        <f>(V3-U3)/V3</f>
+        <v>5.8788947677830094E-4</v>
+      </c>
+      <c r="X3" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>A3*X3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2507,7 +2836,7 @@
         <v>0.188</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="7">
         <v>50</v>
@@ -2516,7 +2845,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:I24" si="1">SQRT($B4*1000/F$2)</f>
+        <f t="shared" ref="F4:I24" si="2">SQRT($B4*1000/F$2)</f>
         <v>15.832456116050556</v>
       </c>
       <c r="G4" s="9">
@@ -2558,7 +2887,7 @@
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S4" s="5">
         <v>10</v>
@@ -2567,19 +2896,26 @@
         <v>2.1</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" ref="U4:U24" si="2">B4</f>
+        <f t="shared" ref="U4:U24" si="3">B4</f>
         <v>0.188</v>
       </c>
       <c r="V4" s="8">
-        <f>S4*S4*T4/1000</f>
+        <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
       <c r="W4" s="33">
-        <f t="shared" ref="W4:W24" si="3">V4-U4</f>
-        <v>2.1999999999999992E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" ref="W4:W24" si="4">(V4-U4)/V4</f>
+        <v>0.10476190476190472</v>
+      </c>
+      <c r="X4" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" ref="Y4:Y24" si="5">A4*X4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2587,7 +2923,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
         <v>28</v>
@@ -2596,7 +2932,7 @@
         <v>29.7</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.165977949672232</v>
       </c>
       <c r="G5" s="9">
@@ -2638,7 +2974,7 @@
       </c>
       <c r="Q5" s="27"/>
       <c r="R5" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S5" s="5">
         <v>8</v>
@@ -2647,19 +2983,26 @@
         <v>4.7</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30499999999999999</v>
       </c>
       <c r="V5" s="8">
-        <f>S5*S5*T5/1000</f>
+        <f t="shared" si="1"/>
         <v>0.30080000000000001</v>
       </c>
       <c r="W5" s="33">
-        <f t="shared" si="3"/>
-        <v>-4.1999999999999815E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-1.3962765957446747E-2</v>
+      </c>
+      <c r="X5" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2667,7 +3010,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7">
         <v>28</v>
@@ -2676,7 +3019,7 @@
         <v>29.7</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.134489978863144</v>
       </c>
       <c r="G6" s="9">
@@ -2718,7 +3061,7 @@
       </c>
       <c r="Q6" s="27"/>
       <c r="R6" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S6" s="5">
         <v>8</v>
@@ -2727,19 +3070,26 @@
         <v>4.7</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33500000000000002</v>
       </c>
       <c r="V6" s="8">
-        <f>S6*S6*T6/1000</f>
+        <f t="shared" si="1"/>
         <v>0.30080000000000001</v>
       </c>
       <c r="W6" s="33">
-        <f t="shared" si="3"/>
-        <v>-3.4200000000000008E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-0.11369680851063832</v>
+      </c>
+      <c r="X6" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -2747,7 +3097,7 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7">
         <v>24.89</v>
@@ -2756,7 +3106,7 @@
         <v>24.99</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.197484127446195</v>
       </c>
       <c r="G7" s="9">
@@ -2798,7 +3148,7 @@
       </c>
       <c r="Q7" s="27"/>
       <c r="R7" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S7" s="5">
         <v>8</v>
@@ -2807,19 +3157,26 @@
         <v>4.7</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33700000000000002</v>
       </c>
       <c r="V7" s="8">
-        <f>S7*S7*T7/1000</f>
+        <f t="shared" si="1"/>
         <v>0.30080000000000001</v>
       </c>
       <c r="W7" s="33">
-        <f t="shared" si="3"/>
-        <v>-3.620000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-0.12034574468085109</v>
+      </c>
+      <c r="X7" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2827,7 +3184,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
         <v>24.89</v>
@@ -2836,7 +3193,7 @@
         <v>24.99</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.354156504062622</v>
       </c>
       <c r="G8" s="9">
@@ -2878,7 +3235,7 @@
       </c>
       <c r="Q8" s="27"/>
       <c r="R8" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S8" s="5">
         <v>8</v>
@@ -2887,19 +3244,26 @@
         <v>4.7</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="V8" s="8">
-        <f>S8*S8*T8/1000</f>
+        <f t="shared" si="1"/>
         <v>0.30080000000000001</v>
       </c>
       <c r="W8" s="33">
-        <f t="shared" si="3"/>
-        <v>-4.1200000000000014E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-0.13696808510638303</v>
+      </c>
+      <c r="X8" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -2907,7 +3271,7 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7">
         <v>21</v>
@@ -2916,7 +3280,7 @@
         <v>21.45</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.266571155486865</v>
       </c>
       <c r="G9" s="9">
@@ -2958,7 +3322,7 @@
       </c>
       <c r="Q9" s="27"/>
       <c r="R9" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S9" s="5">
         <v>9</v>
@@ -2967,19 +3331,26 @@
         <v>4.7</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40600000000000003</v>
       </c>
       <c r="V9" s="8">
-        <f>S9*S9*T9/1000</f>
+        <f t="shared" si="1"/>
         <v>0.38069999999999998</v>
       </c>
       <c r="W9" s="33">
-        <f t="shared" si="3"/>
-        <v>-2.5300000000000045E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-6.6456527449435365E-2</v>
+      </c>
+      <c r="X9" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -2987,7 +3358,7 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7">
         <v>21</v>
@@ -2996,7 +3367,7 @@
         <v>21.45</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.413111231467404</v>
       </c>
       <c r="G10" s="9">
@@ -3038,7 +3409,7 @@
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S10" s="5">
         <v>10</v>
@@ -3047,19 +3418,26 @@
         <v>4.7</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44700000000000001</v>
       </c>
       <c r="V10" s="8">
-        <f>S10*S10*T10/1000</f>
+        <f t="shared" si="1"/>
         <v>0.47</v>
       </c>
       <c r="W10" s="33">
-        <f t="shared" si="3"/>
-        <v>2.2999999999999965E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>4.8936170212765882E-2</v>
+      </c>
+      <c r="X10" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -3067,7 +3445,7 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7">
         <v>18.068000000000001</v>
@@ -3076,7 +3454,7 @@
         <v>18.167999999999999</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.059928172283335</v>
       </c>
       <c r="G11" s="9">
@@ -3118,7 +3496,7 @@
       </c>
       <c r="Q11" s="27"/>
       <c r="R11" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S11" s="5">
         <v>10</v>
@@ -3127,19 +3505,26 @@
         <v>4.7</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47099999999999997</v>
       </c>
       <c r="V11" s="8">
-        <f>S11*S11*T11/1000</f>
+        <f t="shared" si="1"/>
         <v>0.47</v>
       </c>
       <c r="W11" s="33">
-        <f t="shared" si="3"/>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-2.1276595744680873E-3</v>
+      </c>
+      <c r="X11" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -3147,7 +3532,7 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="7">
         <v>18.068000000000001</v>
@@ -3156,7 +3541,7 @@
         <v>18.167999999999999</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.305892875931811</v>
       </c>
       <c r="G12" s="9">
@@ -3198,7 +3583,7 @@
       </c>
       <c r="Q12" s="27"/>
       <c r="R12" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S12" s="5">
         <v>11</v>
@@ -3207,19 +3592,26 @@
         <v>4.7</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51900000000000002</v>
       </c>
       <c r="V12" s="8">
-        <f>S12*S12*T12/1000</f>
+        <f t="shared" si="1"/>
         <v>0.56870000000000009</v>
       </c>
       <c r="W12" s="33">
-        <f t="shared" si="3"/>
-        <v>4.9700000000000077E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>8.739229822401981E-2</v>
+      </c>
+      <c r="X12" s="5">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -3227,7 +3619,7 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="7">
         <v>14</v>
@@ -3236,7 +3628,7 @@
         <v>14.35</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.472208672083497</v>
       </c>
       <c r="G13" s="9">
@@ -3278,7 +3670,7 @@
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S13" s="5">
         <v>11</v>
@@ -3287,19 +3679,26 @@
         <v>4.7</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="V13" s="8">
-        <f>S13*S13*T13/1000</f>
+        <f t="shared" si="1"/>
         <v>0.56870000000000009</v>
       </c>
       <c r="W13" s="33">
-        <f t="shared" si="3"/>
-        <v>-3.9299999999999891E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-6.9104976261649173E-2</v>
+      </c>
+      <c r="X13" s="5">
+        <v>11</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -3307,7 +3706,7 @@
         <v>0.67</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="7">
         <v>14</v>
@@ -3316,7 +3715,7 @@
         <v>14.35</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.888682361946525</v>
       </c>
       <c r="G14" s="9">
@@ -3358,7 +3757,7 @@
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S14" s="5">
         <v>12</v>
@@ -3367,19 +3766,26 @@
         <v>4.7</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67</v>
       </c>
       <c r="V14" s="8">
-        <f>S14*S14*T14/1000</f>
+        <f t="shared" si="1"/>
         <v>0.67680000000000007</v>
       </c>
       <c r="W14" s="33">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000282E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>1.0047281323877109E-2</v>
+      </c>
+      <c r="X14" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="5">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -3387,7 +3793,7 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="7">
         <v>10.1</v>
@@ -3396,7 +3802,7 @@
         <v>10.15</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.526109228480422</v>
       </c>
       <c r="G15" s="9">
@@ -3438,7 +3844,7 @@
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S15" s="5">
         <v>13</v>
@@ -3447,19 +3853,26 @@
         <v>4.7</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84299999999999997</v>
       </c>
       <c r="V15" s="8">
-        <f>S15*S15*T15/1000</f>
+        <f t="shared" si="1"/>
         <v>0.79430000000000012</v>
       </c>
       <c r="W15" s="33">
-        <f t="shared" si="3"/>
-        <v>-4.8699999999999855E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-6.1311846909228057E-2</v>
+      </c>
+      <c r="X15" s="5">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -3467,7 +3880,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="7">
         <v>10.1</v>
@@ -3476,7 +3889,7 @@
         <v>10.15</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.175749222061114</v>
       </c>
       <c r="G16" s="9">
@@ -3518,7 +3931,7 @@
       </c>
       <c r="Q16" s="27"/>
       <c r="R16" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S16" s="5">
         <v>14</v>
@@ -3527,19 +3940,26 @@
         <v>4.7</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="V16" s="8">
-        <f>S16*S16*T16/1000</f>
+        <f t="shared" si="1"/>
         <v>0.92120000000000002</v>
       </c>
       <c r="W16" s="33">
-        <f t="shared" si="3"/>
-        <v>-6.8000000000000282E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-7.3816760746852235E-3</v>
+      </c>
+      <c r="X16" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -3547,7 +3967,7 @@
         <v>1.22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="7">
         <v>7</v>
@@ -3556,7 +3976,7 @@
         <v>7.3</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.331955899344464</v>
       </c>
       <c r="G17" s="9">
@@ -3598,7 +4018,7 @@
       </c>
       <c r="Q17" s="27"/>
       <c r="R17" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S17" s="5">
         <v>16</v>
@@ -3607,19 +4027,26 @@
         <v>4.7</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.22</v>
       </c>
       <c r="V17" s="8">
-        <f>S17*S17*T17/1000</f>
+        <f t="shared" si="1"/>
         <v>1.2032</v>
       </c>
       <c r="W17" s="33">
-        <f t="shared" si="3"/>
-        <v>-1.6799999999999926E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-1.3962765957446747E-2</v>
+      </c>
+      <c r="X17" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -3627,7 +4054,7 @@
         <v>1.34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="7">
         <v>7</v>
@@ -3636,7 +4063,7 @@
         <v>7.3</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.268979957726287</v>
       </c>
       <c r="G18" s="9">
@@ -3678,7 +4105,7 @@
       </c>
       <c r="Q18" s="27"/>
       <c r="R18" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S18" s="5">
         <v>17</v>
@@ -3687,19 +4114,26 @@
         <v>4.7</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.34</v>
       </c>
       <c r="V18" s="8">
-        <f>S18*S18*T18/1000</f>
+        <f t="shared" si="1"/>
         <v>1.3583000000000001</v>
       </c>
       <c r="W18" s="33">
-        <f t="shared" si="3"/>
-        <v>1.8299999999999983E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+        <f>(V18-U18)/V18</f>
+        <v>1.3472723257012429E-2</v>
+      </c>
+      <c r="X18" s="5">
+        <v>16</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -3707,7 +4141,7 @@
         <v>1.6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="7">
         <v>5.3</v>
@@ -3716,49 +4150,49 @@
         <v>5.5</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.188021535170066</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.79535649239177</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.754156331667819</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0582162731567664</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="12">
-        <f t="shared" ref="K19:P24" si="4">SQRT($B19*1000/K$2)</f>
+        <f t="shared" ref="K19:P24" si="6">SQRT($B19*1000/K$2)</f>
         <v>18.4506241605777</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.541160386140582</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.0582162731567664</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22.360679774997898</v>
       </c>
       <c r="O19" s="14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.602622373694167</v>
       </c>
       <c r="Q19" s="27"/>
       <c r="R19" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S19" s="5">
         <v>17</v>
@@ -3767,19 +4201,26 @@
         <v>5.7</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="V19" s="8">
-        <f>S19*S19*T19/1000</f>
+        <f t="shared" si="1"/>
         <v>1.6473</v>
       </c>
       <c r="W19" s="33">
-        <f t="shared" si="3"/>
-        <v>4.7299999999999898E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>2.8713652643719965E-2</v>
+      </c>
+      <c r="X19" s="5">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -3787,7 +4228,7 @@
         <v>1.76</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="7">
         <v>5.3</v>
@@ -3796,49 +4237,49 @@
         <v>5.5</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.442405665559868</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.371074256541732</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.571907404279177</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5003373759256711</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19.351177873875869</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18.397324220155998</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.5003373759256711</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.45207879911715</v>
       </c>
       <c r="O20" s="14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28.949874578229835</v>
       </c>
       <c r="Q20" s="27"/>
       <c r="R20" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S20" s="5">
         <v>18</v>
@@ -3847,19 +4288,26 @@
         <v>5.7</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.76</v>
       </c>
       <c r="V20" s="8">
-        <f>S20*S20*T20/1000</f>
+        <f t="shared" si="1"/>
         <v>1.8468</v>
       </c>
       <c r="W20" s="33">
-        <f t="shared" si="3"/>
-        <v>8.6799999999999988E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>4.7000216590859858E-2</v>
+      </c>
+      <c r="X20" s="5">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -3867,7 +4315,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
         <v>3.5</v>
@@ -3876,49 +4324,49 @@
         <v>4</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.920997883030829</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.536311355570469</v>
       </c>
       <c r="H21" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.647416048350561</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.163126113028762</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22.738101868796011</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21.61730076368676</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.163126113028762</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.556759606310752</v>
       </c>
       <c r="O21" s="14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.01680257083045</v>
       </c>
       <c r="Q21" s="27"/>
       <c r="R21" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S21" s="5">
         <v>21</v>
@@ -3927,19 +4375,26 @@
         <v>5.7</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4300000000000002</v>
       </c>
       <c r="V21" s="8">
-        <f>S21*S21*T21/1000</f>
+        <f t="shared" si="1"/>
         <v>2.5137000000000005</v>
       </c>
       <c r="W21" s="33">
-        <f t="shared" si="3"/>
-        <v>8.370000000000033E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>3.3297529538131164E-2</v>
+      </c>
+      <c r="X21" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -3947,7 +4402,7 @@
         <v>2.68</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="7">
         <v>3.5</v>
@@ -3956,49 +4411,49 @@
         <v>4</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.777364723893051</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.265761633828479</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.683529200674212</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.723305738395524</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.879128249528851</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22.702083943651854</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.723305738395524</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28.939592256975562</v>
       </c>
       <c r="O22" s="14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35.723808254306768</v>
       </c>
       <c r="Q22" s="27"/>
       <c r="R22" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S22" s="5">
         <v>22</v>
@@ -4007,19 +4462,26 @@
         <v>5.7</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.68</v>
       </c>
       <c r="V22" s="8">
-        <f>S22*S22*T22/1000</f>
+        <f t="shared" si="1"/>
         <v>2.7588000000000004</v>
       </c>
       <c r="W22" s="33">
-        <f t="shared" si="3"/>
-        <v>7.8800000000000203E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>2.856314339567935E-2</v>
+      </c>
+      <c r="X22" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -4027,7 +4489,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7">
         <v>1.8</v>
@@ -4036,49 +4498,49 @@
         <v>2</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.414524280301947</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.28063972921187</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.806675639571964</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.574469575690292</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31.723539820193526</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30.159830646331297</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.574469575690292</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>38.446391248074249</v>
       </c>
       <c r="O23" s="14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47.459255708248861</v>
       </c>
       <c r="Q23" s="27"/>
       <c r="R23" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S23" s="5">
         <v>29</v>
@@ -4087,19 +4549,26 @@
         <v>5.7</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="V23" s="8">
-        <f>S23*S23*T23/1000</f>
+        <f t="shared" si="1"/>
         <v>4.7936999999999994</v>
       </c>
       <c r="W23" s="33">
-        <f t="shared" si="3"/>
-        <v>6.369999999999898E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>1.3288274193211713E-2</v>
+      </c>
+      <c r="X23" s="5">
+        <v>26</v>
+      </c>
+      <c r="Y23" s="5">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -4107,7 +4576,7 @@
         <v>5.21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="17">
         <v>1.8</v>
@@ -4116,49 +4585,49 @@
         <v>2</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.346665600170638</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.284818022733237</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.233013209392446</v>
       </c>
       <c r="I24" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.345625934160097</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33.294303391088874</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31.653168513169057</v>
       </c>
       <c r="M24" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.345625934160097</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40.350030978922433</v>
       </c>
       <c r="O24" s="21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49.809159608975342</v>
       </c>
       <c r="Q24" s="27"/>
       <c r="R24" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S24" s="16">
         <v>30</v>
@@ -4167,22 +4636,29 @@
         <v>5.7</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.21</v>
       </c>
       <c r="V24" s="8">
-        <f>S24*S24*T24/1000</f>
+        <f t="shared" si="1"/>
         <v>5.13</v>
       </c>
       <c r="W24" s="33">
-        <f t="shared" si="3"/>
-        <v>-8.0000000000000071E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>-1.5594541910331399E-2</v>
+      </c>
+      <c r="X24" s="5">
+        <v>26</v>
+      </c>
+      <c r="Y24" s="5">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <f>SUM(A3:A24)</f>
         <v>33</v>
@@ -4204,6 +4680,22 @@
       <c r="P26" s="25">
         <f>SUM(A3:A4)</f>
         <v>3</v>
+      </c>
+      <c r="Y26" s="5">
+        <f>SUM(Y3:Y24)</f>
+        <v>456</v>
+      </c>
+      <c r="Z26" s="5">
+        <f>Y26/12</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4224,4 +4716,885 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="5"/>
+    <col min="11" max="11" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="5">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.1701</v>
+      </c>
+      <c r="I3" s="33">
+        <v>5.8788947677830094E-4</v>
+      </c>
+      <c r="J3" s="5">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.188</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.188</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0.10476190476190472</v>
+      </c>
+      <c r="J4" s="5">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="I5" s="33">
+        <v>-1.3962765957446747E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="I6" s="33">
+        <v>-0.11369680851063832</v>
+      </c>
+      <c r="J6" s="5">
+        <v>9</v>
+      </c>
+      <c r="K6" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="I7" s="33">
+        <v>-0.12034574468085109</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="I8" s="33">
+        <v>-0.13696808510638303</v>
+      </c>
+      <c r="J8" s="5">
+        <v>9</v>
+      </c>
+      <c r="K8" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="I9" s="33">
+        <v>-6.6456527449435365E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="I10" s="33">
+        <v>4.8936170212765882E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>10</v>
+      </c>
+      <c r="K10" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="I11" s="33">
+        <v>-2.1276595744680873E-3</v>
+      </c>
+      <c r="J11" s="5">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="5">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.56870000000000009</v>
+      </c>
+      <c r="I12" s="33">
+        <v>8.739229822401981E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="5">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.56870000000000009</v>
+      </c>
+      <c r="I13" s="33">
+        <v>-6.9104976261649173E-2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="5">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.67680000000000007</v>
+      </c>
+      <c r="I14" s="33">
+        <v>1.0047281323877109E-2</v>
+      </c>
+      <c r="J14" s="5">
+        <v>12</v>
+      </c>
+      <c r="K14" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="5">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.79430000000000012</v>
+      </c>
+      <c r="I15" s="33">
+        <v>-6.1311846909228057E-2</v>
+      </c>
+      <c r="J15" s="5">
+        <v>13</v>
+      </c>
+      <c r="K15" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="5">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="I16" s="33">
+        <v>-7.3816760746852235E-3</v>
+      </c>
+      <c r="J16" s="5">
+        <v>14</v>
+      </c>
+      <c r="K16" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="5">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.2032</v>
+      </c>
+      <c r="I17" s="33">
+        <v>-1.3962765957446747E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>15</v>
+      </c>
+      <c r="K17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="5">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.3583000000000001</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1.3472723257012429E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>16</v>
+      </c>
+      <c r="K18" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="5">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1.6473</v>
+      </c>
+      <c r="I19" s="33">
+        <v>2.8713652643719965E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>16</v>
+      </c>
+      <c r="K19" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="5">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.8468</v>
+      </c>
+      <c r="I20" s="33">
+        <v>4.7000216590859858E-2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>17</v>
+      </c>
+      <c r="K20" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="5">
+        <v>21</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2.5137000000000005</v>
+      </c>
+      <c r="I21" s="33">
+        <v>3.3297529538131164E-2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>19</v>
+      </c>
+      <c r="K21" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="5">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2.7588000000000004</v>
+      </c>
+      <c r="I22" s="33">
+        <v>2.856314339567935E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="5">
+        <v>29</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H23" s="8">
+        <v>4.7936999999999994</v>
+      </c>
+      <c r="I23" s="33">
+        <v>1.3288274193211713E-2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>26</v>
+      </c>
+      <c r="K23" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16">
+        <v>5.21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="16">
+        <v>30</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5.13</v>
+      </c>
+      <c r="I24" s="33">
+        <v>-1.5594541910331399E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>26</v>
+      </c>
+      <c r="K24" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>33</v>
+      </c>
+      <c r="K26" s="5">
+        <v>456</v>
+      </c>
+      <c r="L26" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FADFC-3438-4663-AF0B-0F1053F0E0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E7D004-04B0-407B-8BD4-A0170E4F4024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
     <sheet name="Inductor Calcs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Basis" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1173,7 +1173,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1272,6 +1272,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4722,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5439,7 +5442,7 @@
       <c r="B21" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="35" t="s">
         <v>119</v>
       </c>
       <c r="D21" s="29" t="s">
@@ -5474,7 +5477,7 @@
       <c r="B22" s="5">
         <v>2.68</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="35" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="29" t="s">
@@ -5509,7 +5512,7 @@
       <c r="B23" s="5">
         <v>4.7300000000000004</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="35" t="s">
         <v>123</v>
       </c>
       <c r="D23" s="29" t="s">
@@ -5544,7 +5547,7 @@
       <c r="B24" s="16">
         <v>5.21</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="36" t="s">
         <v>125</v>
       </c>
       <c r="D24" s="30" t="s">

--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E7D004-04B0-407B-8BD4-A0170E4F4024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4F8A4-5A45-4595-9047-C17EE12324EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="186">
   <si>
     <t>Qty</t>
   </si>
@@ -615,6 +615,49 @@
       <t>L35</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L10, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L31</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +667,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +812,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1173,7 +1229,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1275,6 +1331,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4725,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5058,7 +5117,7 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>132</v>
@@ -5128,7 +5187,7 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>132</v>
@@ -5162,7 +5221,7 @@
       <c r="B13" s="5">
         <v>0.60799999999999998</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="37" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -5198,7 +5257,7 @@
         <v>0.67</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>132</v>

--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4F8A4-5A45-4595-9047-C17EE12324EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594BB92-B954-4D8C-9C84-E4AECF7029DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
     <sheet name="Inductor Calcs" sheetId="2" r:id="rId2"/>
     <sheet name="Basis" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="VNA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="190">
   <si>
     <t>Qty</t>
   </si>
@@ -658,14 +658,27 @@
       <t>L31</t>
     </r>
   </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -830,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,8 +1071,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1183,6 +1202,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1229,7 +1257,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1327,13 +1355,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2636,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21315881-8117-4FCF-A08E-B5E61CEF681B}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2952,7 +3049,7 @@
         <v>133</v>
       </c>
       <c r="S4" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T4" s="5">
         <v>2.1</v>
@@ -2963,11 +3060,11 @@
       </c>
       <c r="V4" s="8">
         <f t="shared" si="1"/>
-        <v>0.21</v>
+        <v>0.1701</v>
       </c>
       <c r="W4" s="33">
         <f t="shared" ref="W4:W24" si="4">(V4-U4)/V4</f>
-        <v>0.10476190476190472</v>
+        <v>-0.10523221634332745</v>
       </c>
       <c r="X4" s="5">
         <v>10</v>
@@ -3300,7 +3397,7 @@
         <v>132</v>
       </c>
       <c r="S8" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T8" s="5">
         <v>4.7</v>
@@ -3311,11 +3408,11 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="1"/>
-        <v>0.30080000000000001</v>
+        <v>0.38069999999999998</v>
       </c>
       <c r="W8" s="33">
         <f t="shared" si="4"/>
-        <v>-0.13696808510638303</v>
+        <v>0.1016548463356973</v>
       </c>
       <c r="X8" s="5">
         <v>9</v>
@@ -4782,10 +4879,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4797,13 +4894,15 @@
     <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="5"/>
+    <col min="8" max="8" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.26953125" customWidth="1"/>
+    <col min="13" max="13" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -4837,8 +4936,14 @@
       <c r="K1" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>130</v>
@@ -4863,781 +4968,922 @@
       <c r="K2" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="L2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="59">
         <v>0.17</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="60">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="36">
         <v>2.1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="36">
         <v>0.17</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="39">
         <v>0.1701</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="40">
         <v>5.8788947677830094E-4</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="36">
         <v>10</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="L3" s="41">
+        <v>50</v>
+      </c>
+      <c r="M3" s="41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="16">
         <v>0.188</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="57">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.188</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.1701</v>
+      </c>
+      <c r="I4" s="43">
+        <v>-0.10523221634332745</v>
+      </c>
+      <c r="J4" s="16">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.188</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.21</v>
-      </c>
-      <c r="I4" s="33">
-        <v>0.10476190476190472</v>
-      </c>
-      <c r="J4" s="5">
-        <v>10</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="K4" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="L4" s="44">
+        <v>50</v>
+      </c>
+      <c r="M4" s="44">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="45">
         <v>0.30499999999999999</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="58">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="45">
         <v>4.7</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="45">
         <v>0.30499999999999999</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="48">
         <v>0.30080000000000001</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="49">
         <v>-1.3962765957446747E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="45">
         <v>9</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="45">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="L5" s="50">
+        <v>28</v>
+      </c>
+      <c r="M5" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="16">
         <v>0.33500000000000002</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="57">
         <v>8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="16">
         <v>4.7</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="16">
         <v>0.33500000000000002</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="18">
         <v>0.30080000000000001</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="43">
         <v>-0.11369680851063832</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="16">
         <v>9</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="16">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="L6" s="52">
+        <v>28</v>
+      </c>
+      <c r="M6" s="52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="45">
         <v>0.33700000000000002</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="58">
         <v>8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="45">
         <v>4.7</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="45">
         <v>0.33700000000000002</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="48">
         <v>0.30080000000000001</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="49">
         <v>-0.12034574468085109</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="45">
         <v>9</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="45">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="L7" s="50">
+        <v>24</v>
+      </c>
+      <c r="M7" s="50">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="16">
         <v>0.34200000000000003</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="5">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="57">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16">
         <v>4.7</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="16">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H8" s="8">
-        <v>0.30080000000000001</v>
-      </c>
-      <c r="I8" s="33">
-        <v>-0.13696808510638303</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="H8" s="18">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="I8" s="43">
+        <v>0.1016548463356973</v>
+      </c>
+      <c r="J8" s="16">
         <v>9</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="L8" s="52">
+        <v>24</v>
+      </c>
+      <c r="M8" s="52">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="45">
         <v>1</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="45">
         <v>0.40600000000000003</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="58">
         <v>9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="45">
         <v>4.7</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="45">
         <v>0.40600000000000003</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="48">
         <v>0.38069999999999998</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="49">
         <v>-6.6456527449435365E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="45">
         <v>10</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="45">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="L9" s="50">
+        <v>21</v>
+      </c>
+      <c r="M9" s="50">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="16">
         <v>0.44700000000000001</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="57">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="16">
         <v>4.7</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="16">
         <v>0.44700000000000001</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="18">
         <v>0.47</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="43">
         <v>4.8936170212765882E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="16">
         <v>10</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="L10" s="52">
+        <v>21</v>
+      </c>
+      <c r="M10" s="52">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="45">
         <v>1</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="45">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="58">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="45">
         <v>4.7</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="45">
         <v>0.47099999999999997</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="48">
         <v>0.47</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="49">
         <v>-2.1276595744680873E-3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="45">
         <v>10</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="45">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="L11" s="50">
+        <v>18</v>
+      </c>
+      <c r="M11" s="50">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="16">
         <v>0.51900000000000002</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="57">
         <v>11</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="16">
         <v>4.7</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="16">
         <v>0.51900000000000002</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="18">
         <v>0.56870000000000009</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="43">
         <v>8.739229822401981E-2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="16">
         <v>11</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="16">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="L12" s="52">
+        <v>18</v>
+      </c>
+      <c r="M12" s="52">
+        <v>18.5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="45">
         <v>1</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="45">
         <v>0.60799999999999998</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="58">
         <v>11</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="45">
         <v>4.7</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="45">
         <v>0.60799999999999998</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="48">
         <v>0.56870000000000009</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="49">
         <v>-6.9104976261649173E-2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="45">
         <v>11</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="45">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="L13" s="50">
+        <v>14</v>
+      </c>
+      <c r="M13" s="50">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="16">
         <v>0.67</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="57">
         <v>12</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="16">
         <v>4.7</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="16">
         <v>0.67</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="18">
         <v>0.67680000000000007</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="43">
         <v>1.0047281323877109E-2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="16">
         <v>12</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="16">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="L14" s="52">
+        <v>14</v>
+      </c>
+      <c r="M14" s="52">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="45">
         <v>1</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="45">
         <v>0.84299999999999997</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="58">
         <v>13</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="45">
         <v>4.7</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="45">
         <v>0.84299999999999997</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="48">
         <v>0.79430000000000012</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="49">
         <v>-6.1311846909228057E-2</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="45">
         <v>13</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="L15" s="50">
+        <v>10</v>
+      </c>
+      <c r="M15" s="50">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
         <v>2</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="16">
         <v>0.92800000000000005</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="57">
         <v>14</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="16">
         <v>4.7</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="16">
         <v>0.92800000000000005</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="18">
         <v>0.92120000000000002</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="43">
         <v>-7.3816760746852235E-3</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="16">
         <v>14</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="L16" s="52">
+        <v>10</v>
+      </c>
+      <c r="M16" s="52">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="45">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="45">
         <v>1.22</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="58">
         <v>16</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="45">
         <v>4.7</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="45">
         <v>1.22</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="48">
         <v>1.2032</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="49">
         <v>-1.3962765957446747E-2</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="45">
         <v>15</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="L17" s="50">
+        <v>7</v>
+      </c>
+      <c r="M17" s="50">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
         <v>2</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="16">
         <v>1.34</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="57">
         <v>17</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="16">
         <v>4.7</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="16">
         <v>1.34</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="18">
         <v>1.3583000000000001</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="43">
         <v>1.3472723257012429E-2</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="16">
         <v>16</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="16">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="L18" s="52">
+        <v>7</v>
+      </c>
+      <c r="M18" s="52">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="45">
         <v>1</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="45">
         <v>1.6</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="58">
         <v>17</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="45">
         <v>5.7</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="45">
         <v>1.6</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="48">
         <v>1.6473</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="49">
         <v>2.8713652643719965E-2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="45">
         <v>16</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="45">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="L19" s="55">
+        <v>5</v>
+      </c>
+      <c r="M19" s="55">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
         <v>2</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="16">
         <v>1.76</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="57">
         <v>18</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="16">
         <v>5.7</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="16">
         <v>1.76</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="18">
         <v>1.8468</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="43">
         <v>4.7000216590859858E-2</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="16">
         <v>17</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="16">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="L20" s="56">
+        <v>5</v>
+      </c>
+      <c r="M20" s="56">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="45">
         <v>1</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="45">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="58">
         <v>21</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="45">
         <v>5.7</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="45">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="48">
         <v>2.5137000000000005</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="49">
         <v>3.3297529538131164E-2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="45">
         <v>19</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="45">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="L21" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="M21" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
         <v>2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="16">
         <v>2.68</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="57">
         <v>22</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="16">
         <v>5.7</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="16">
         <v>2.68</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="18">
         <v>2.7588000000000004</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="43">
         <v>2.856314339567935E-2</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="16">
         <v>20</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="16">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="L22" s="56">
+        <v>3.5</v>
+      </c>
+      <c r="M22" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="45">
         <v>1</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="45">
         <v>4.7300000000000004</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="58">
         <v>29</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="45">
         <v>5.7</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="45">
         <v>4.7300000000000004</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="48">
         <v>4.7936999999999994</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="49">
         <v>1.3288274193211713E-2</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="45">
         <v>26</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="45">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L23" s="55">
+        <v>1.8</v>
+      </c>
+      <c r="M23" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2</v>
       </c>
       <c r="B24" s="16">
         <v>5.21</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="35" t="s">
         <v>125</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="57">
         <v>30</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="16">
         <v>5.7</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="16">
         <v>5.21</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="18">
         <v>5.13</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="43">
         <v>-1.5594541910331399E-2</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="16">
         <v>26</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="16">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L24" s="56">
+        <v>1.8</v>
+      </c>
+      <c r="M24" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>33</v>
       </c>
@@ -5648,7 +5894,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K27" s="5" t="s">
         <v>155</v>
       </c>
